--- a/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 29,58</t>
+          <t>19,31; 30,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,71</t>
+          <t>16,23; 25,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,33; 35,83</t>
+          <t>25,02; 35,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,39; 41,67</t>
+          <t>29,09; 41,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 43,65</t>
+          <t>32,06; 43,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,38; 55,9</t>
+          <t>46,98; 55,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,65; 33,98</t>
+          <t>25,87; 33,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,3; 32,75</t>
+          <t>25,29; 33,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,62; 44,57</t>
+          <t>37,16; 44,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,59</t>
+          <t>18,11; 25,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 18,25</t>
+          <t>11,23; 18,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 15,88</t>
+          <t>10,25; 16,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,34; 28,94</t>
+          <t>19,96; 28,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,84; 46,13</t>
+          <t>37,8; 45,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,36</t>
+          <t>25,12; 33,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,1; 25,93</t>
+          <t>18,13; 25,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,24; 38,87</t>
+          <t>31,21; 38,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,83</t>
+          <t>28,86; 34,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 24,6</t>
+          <t>19,11; 24,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 19,88</t>
+          <t>14,97; 20,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 32,94</t>
+          <t>26,98; 32,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 16,69</t>
+          <t>9,67; 17,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,42</t>
+          <t>12,17; 20,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 17,55</t>
+          <t>10,34; 17,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 38,81</t>
+          <t>28,37; 38,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,55; 32,19</t>
+          <t>22,3; 31,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,48; 31,33</t>
+          <t>21,94; 31,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 27,83</t>
+          <t>18,24; 27,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,4; 41,47</t>
+          <t>32,65; 40,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 23,26</t>
+          <t>16,9; 23,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,88</t>
+          <t>18,22; 24,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 21,45</t>
+          <t>15,11; 21,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,03; 38,53</t>
+          <t>31,66; 38,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,34</t>
+          <t>16,64; 25,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,8</t>
+          <t>15,59; 21,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 27,22</t>
+          <t>18,36; 26,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,94; 38,29</t>
+          <t>26,17; 37,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 39,81</t>
+          <t>30,53; 40,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 39,2</t>
+          <t>31,69; 39,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 42,35</t>
+          <t>31,73; 41,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,57; 46,86</t>
+          <t>35,44; 46,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,29</t>
+          <t>24,84; 31,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 29,67</t>
+          <t>24,48; 29,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 33,46</t>
+          <t>26,39; 33,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 41,15</t>
+          <t>33,25; 41,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,29</t>
+          <t>10,81; 20,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,65</t>
+          <t>16,6; 28,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,65; 27,73</t>
+          <t>16,88; 28,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,52</t>
+          <t>18,69; 28,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 29,22</t>
+          <t>17,16; 29,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 53,38</t>
+          <t>40,0; 54,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,23; 35,44</t>
+          <t>23,58; 35,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,24; 37,29</t>
+          <t>28,86; 37,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,55</t>
+          <t>15,41; 23,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,56; 38,7</t>
+          <t>30,13; 39,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,49; 29,9</t>
+          <t>21,66; 30,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,5; 31,94</t>
+          <t>25,59; 32,21</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,36</t>
+          <t>14,46; 24,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,83; 30,35</t>
+          <t>19,54; 30,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 27,22</t>
+          <t>17,28; 27,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,7; 49,42</t>
+          <t>38,47; 49,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,37; 35,17</t>
+          <t>23,69; 34,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 34,62</t>
+          <t>23,69; 34,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,29; 36,25</t>
+          <t>25,3; 37,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,93; 59,39</t>
+          <t>49,27; 59,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,23</t>
+          <t>20,98; 28,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 30,81</t>
+          <t>23,56; 31,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,41; 30,42</t>
+          <t>22,74; 30,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,39; 52,88</t>
+          <t>45,64; 52,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,92</t>
+          <t>11,54; 17,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,38</t>
+          <t>12,42; 18,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,77; 26,57</t>
+          <t>19,85; 26,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,35; 31,07</t>
+          <t>23,4; 30,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,77</t>
+          <t>17,36; 23,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,06; 30,49</t>
+          <t>23,77; 30,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 35,39</t>
+          <t>28,01; 35,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,21; 64,3</t>
+          <t>34,29; 66,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,18; 19,33</t>
+          <t>15,35; 19,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,43</t>
+          <t>18,7; 23,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,92; 30,06</t>
+          <t>24,84; 29,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,7; 52,07</t>
+          <t>30,62; 53,77</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,71</t>
+          <t>15,66; 21,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,24</t>
+          <t>20,96; 27,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,66</t>
+          <t>13,6; 18,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,09</t>
+          <t>13,66; 20,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,8; 29,36</t>
+          <t>22,9; 29,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,38; 35,21</t>
+          <t>28,8; 34,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,73; 29,05</t>
+          <t>22,39; 28,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,82; 32,76</t>
+          <t>26,86; 32,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,34; 24,53</t>
+          <t>20,33; 24,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25,73; 30,4</t>
+          <t>25,71; 30,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19,07; 23,45</t>
+          <t>19,01; 23,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,95; 25,7</t>
+          <t>20,73; 25,61</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,73; 19,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,32</t>
+          <t>17,47; 20,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,39; 20,0</t>
+          <t>17,26; 19,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,64; 28,23</t>
+          <t>24,6; 28,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,51; 30,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,79</t>
+          <t>29,87; 32,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,19; 30,24</t>
+          <t>27,29; 30,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,74; 44,88</t>
+          <t>36,74; 45,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,78; 24,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,34</t>
+          <t>24,16; 26,24</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,83</t>
+          <t>22,85; 24,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>31,7; 37,28</t>
+          <t>31,65; 36,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,31; 30,04</t>
+          <t>19,74; 30,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 25,91</t>
+          <t>16,01; 26,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 41,84</t>
+          <t>29,85; 41,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,06; 43,54</t>
+          <t>31,98; 43,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,87; 33,79</t>
+          <t>25,34; 33,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,29; 33,26</t>
+          <t>25,51; 33,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,11; 25,79</t>
+          <t>17,99; 25,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,23; 18,26</t>
+          <t>11,05; 17,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,11</t>
+          <t>10,25; 16,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,8; 45,89</t>
+          <t>37,55; 45,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,12; 33,31</t>
+          <t>24,79; 32,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,74</t>
+          <t>18,18; 25,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,86; 34,89</t>
+          <t>28,74; 34,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,11; 24,72</t>
+          <t>19,14; 24,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,97; 20,22</t>
+          <t>15,22; 20,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,29</t>
+          <t>9,79; 16,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 20,89</t>
+          <t>12,45; 20,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,26</t>
+          <t>10,06; 17,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 31,69</t>
+          <t>22,14; 31,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,94; 31,92</t>
+          <t>21,15; 31,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,24; 27,87</t>
+          <t>18,08; 27,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 23,58</t>
+          <t>17,16; 23,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 24,87</t>
+          <t>18,07; 24,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 21,09</t>
+          <t>15,03; 21,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 25,56</t>
+          <t>16,78; 25,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,8</t>
+          <t>15,49; 21,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 26,9</t>
+          <t>17,83; 26,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 40,05</t>
+          <t>29,15; 39,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,69; 39,39</t>
+          <t>31,66; 39,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,73; 41,95</t>
+          <t>32,69; 42,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 31,56</t>
+          <t>24,8; 31,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,48; 29,48</t>
+          <t>24,82; 29,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 33,37</t>
+          <t>26,7; 33,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,81; 20,41</t>
+          <t>10,89; 20,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 28,09</t>
+          <t>16,16; 27,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 28,4</t>
+          <t>16,54; 28,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 29,07</t>
+          <t>17,0; 29,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,0; 54,09</t>
+          <t>38,83; 52,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,58; 35,4</t>
+          <t>23,38; 35,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,41; 23,47</t>
+          <t>15,19; 22,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,13; 39,08</t>
+          <t>29,63; 38,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,66; 30,21</t>
+          <t>21,7; 30,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 24,12</t>
+          <t>14,9; 24,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,54; 30,46</t>
+          <t>19,89; 30,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,28; 27,18</t>
+          <t>17,47; 27,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,69; 34,78</t>
+          <t>23,72; 35,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,69; 34,99</t>
+          <t>23,42; 34,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,3; 37,16</t>
+          <t>24,87; 36,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 28,02</t>
+          <t>20,81; 28,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,56; 31,19</t>
+          <t>22,97; 30,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,39</t>
+          <t>22,75; 30,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,54; 17,04</t>
+          <t>11,4; 16,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,45</t>
+          <t>12,54; 18,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,85; 26,66</t>
+          <t>19,9; 26,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,36; 23,98</t>
+          <t>17,51; 23,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,54</t>
+          <t>23,44; 30,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,01; 35,18</t>
+          <t>28,12; 34,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 19,76</t>
+          <t>15,3; 19,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,7; 23,32</t>
+          <t>18,81; 23,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,84; 29,65</t>
+          <t>24,69; 30,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,66; 21,29</t>
+          <t>15,57; 21,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,35</t>
+          <t>20,63; 27,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,74</t>
+          <t>13,46; 18,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,35</t>
+          <t>22,98; 29,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,8; 34,97</t>
+          <t>28,8; 35,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,39; 28,97</t>
+          <t>22,87; 29,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,33; 24,64</t>
+          <t>20,31; 24,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25,71; 30,6</t>
+          <t>25,54; 30,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19,01; 23,21</t>
+          <t>18,87; 23,17</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,49</t>
+          <t>16,8; 19,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,47; 20,48</t>
+          <t>17,57; 20,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,85</t>
+          <t>17,18; 19,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,73</t>
+          <t>27,68; 30,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,87; 32,95</t>
+          <t>29,83; 32,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,29; 30,73</t>
+          <t>27,27; 30,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,86</t>
+          <t>22,73; 24,82</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,24</t>
+          <t>24,16; 26,28</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>22,85; 24,91</t>
+          <t>22,8; 24,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,74; 30,34</t>
+          <t>18,82; 29,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 26,54</t>
+          <t>15,68; 25,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,02; 35,92</t>
+          <t>25,33; 35,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,85; 41,28</t>
+          <t>29,39; 41,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,98; 43,8</t>
+          <t>32,1; 43,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,98; 55,8</t>
+          <t>46,38; 55,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,34; 33,48</t>
+          <t>25,65; 33,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,51; 33,17</t>
+          <t>25,3; 32,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 44,58</t>
+          <t>37,62; 44,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 25,33</t>
+          <t>18,13; 25,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 17,57</t>
+          <t>11,22; 18,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,24</t>
+          <t>10,2; 15,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,96; 28,64</t>
+          <t>20,34; 28,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,55; 45,81</t>
+          <t>37,84; 46,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,79; 32,93</t>
+          <t>24,95; 33,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,18; 25,58</t>
+          <t>18,1; 25,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,21; 38,47</t>
+          <t>31,24; 38,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,74; 34,77</t>
+          <t>29,21; 34,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,14; 24,56</t>
+          <t>19,26; 24,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 20,1</t>
+          <t>14,92; 19,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 32,73</t>
+          <t>26,92; 32,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,95</t>
+          <t>9,65; 16,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 20,63</t>
+          <t>12,09; 20,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 17,58</t>
+          <t>10,2; 17,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,37; 38,39</t>
+          <t>28,67; 38,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,14; 31,42</t>
+          <t>22,55; 32,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,15; 31,56</t>
+          <t>21,48; 31,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 27,52</t>
+          <t>18,08; 27,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,65; 40,78</t>
+          <t>32,4; 41,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 23,2</t>
+          <t>17,07; 23,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,07; 24,66</t>
+          <t>18,12; 24,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,03</t>
+          <t>15,33; 21,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,66; 38,19</t>
+          <t>32,03; 38,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 25,1</t>
+          <t>16,34; 25,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,78</t>
+          <t>15,49; 21,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 26,63</t>
+          <t>18,32; 27,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 37,92</t>
+          <t>25,94; 38,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,15; 39,25</t>
+          <t>30,72; 39,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 39,11</t>
+          <t>31,75; 39,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,69; 42,82</t>
+          <t>31,81; 42,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,44; 46,59</t>
+          <t>35,57; 46,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,8; 31,36</t>
+          <t>24,93; 31,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,82; 29,48</t>
+          <t>24,65; 29,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 33,72</t>
+          <t>26,56; 33,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,25; 41,36</t>
+          <t>32,89; 41,15</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,89; 20,09</t>
+          <t>10,74; 20,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 27,91</t>
+          <t>16,57; 27,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,54; 28,16</t>
+          <t>16,65; 27,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 28,92</t>
+          <t>18,83; 28,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 29,26</t>
+          <t>17,73; 29,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,83; 52,97</t>
+          <t>39,6; 53,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 35,72</t>
+          <t>23,23; 35,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,86; 37,22</t>
+          <t>29,24; 37,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 22,81</t>
+          <t>15,67; 23,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,63; 38,7</t>
+          <t>29,56; 38,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,7; 30,18</t>
+          <t>21,49; 29,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,59; 32,21</t>
+          <t>25,5; 31,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 24,33</t>
+          <t>14,63; 24,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,89; 30,53</t>
+          <t>19,83; 30,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 27,08</t>
+          <t>17,21; 27,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,47; 49,71</t>
+          <t>38,7; 49,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,72; 35,2</t>
+          <t>24,37; 35,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,42; 34,61</t>
+          <t>24,16; 34,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,87; 36,81</t>
+          <t>25,29; 36,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,27; 59,03</t>
+          <t>48,93; 59,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,81; 28,22</t>
+          <t>21,0; 28,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,75</t>
+          <t>23,23; 30,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,75; 30,71</t>
+          <t>22,41; 30,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,64; 52,97</t>
+          <t>45,39; 52,88</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,4; 16,73</t>
+          <t>11,37; 16,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,51</t>
+          <t>12,41; 18,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,75</t>
+          <t>19,77; 26,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,59</t>
+          <t>23,35; 31,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,89</t>
+          <t>17,64; 23,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,44; 30,29</t>
+          <t>23,06; 30,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,12; 34,87</t>
+          <t>27,72; 35,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,29; 66,68</t>
+          <t>34,21; 64,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,61</t>
+          <t>15,18; 19,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,64</t>
+          <t>18,74; 23,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,69; 30,03</t>
+          <t>24,92; 30,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,62; 53,77</t>
+          <t>30,7; 52,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,57; 21,19</t>
+          <t>15,99; 21,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,63; 27,37</t>
+          <t>21,05; 27,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,46; 18,76</t>
+          <t>13,43; 18,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,2</t>
+          <t>13,66; 20,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,98; 29,25</t>
+          <t>22,8; 29,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,8; 35,41</t>
+          <t>28,38; 35,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,3</t>
+          <t>22,73; 29,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,86; 32,73</t>
+          <t>26,82; 32,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,53</t>
+          <t>20,34; 24,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25,54; 30,35</t>
+          <t>25,73; 30,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,87; 23,17</t>
+          <t>19,07; 23,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,73; 25,61</t>
+          <t>20,95; 25,7</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,8; 19,53</t>
+          <t>16,88; 19,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,57; 20,36</t>
+          <t>17,52; 20,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,18; 19,93</t>
+          <t>17,39; 20,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,6; 28,14</t>
+          <t>24,64; 28,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,68; 30,65</t>
+          <t>27,78; 30,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,83; 32,94</t>
+          <t>29,68; 32,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,27; 30,57</t>
+          <t>27,19; 30,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,74; 45,56</t>
+          <t>36,74; 44,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,73; 24,82</t>
+          <t>22,66; 24,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,28</t>
+          <t>24,22; 26,34</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>22,8; 24,93</t>
+          <t>22,78; 24,83</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>31,65; 36,58</t>
+          <t>31,7; 37,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>39,42%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,28; 25,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,33; 35,83</t>
+          <t>24,13; 35,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,04; 43,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,38; 55,9</t>
+          <t>45,25; 55,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,73; 33,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,62; 44,57</t>
+          <t>35,72; 43,15</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>28,96%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,34; 28,94</t>
+          <t>19,25; 27,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,24; 38,87</t>
+          <t>31,06; 38,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 32,94</t>
+          <t>26,07; 32,08</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,7%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 38,81</t>
+          <t>28,03; 38,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,4; 41,47</t>
+          <t>32,11; 41,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,03; 38,53</t>
+          <t>31,48; 38,0</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>33,25%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,8</t>
+          <t>12,87; 21,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,94; 38,29</t>
+          <t>25,31; 37,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 39,2</t>
+          <t>30,12; 39,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,57; 46,86</t>
+          <t>20,19; 43,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 29,67</t>
+          <t>22,85; 29,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 41,15</t>
+          <t>24,64; 38,78</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>28,85%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,52</t>
+          <t>18,9; 28,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,24; 37,29</t>
+          <t>29,53; 37,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,5; 31,94</t>
+          <t>25,68; 32,07</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>48,96%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,7; 49,42</t>
+          <t>38,17; 48,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,93; 59,39</t>
+          <t>49,06; 59,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,39; 52,88</t>
+          <t>45,01; 52,59</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>40,4%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,35; 31,07</t>
+          <t>22,55; 30,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,21; 64,3</t>
+          <t>34,03; 76,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,7; 52,07</t>
+          <t>29,97; 62,07</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,09</t>
+          <t>6,07; 19,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,82; 32,76</t>
+          <t>27,0; 32,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,95; 25,7</t>
+          <t>13,17; 24,76</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,64; 28,23</t>
+          <t>19,67; 27,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,74; 44,88</t>
+          <t>35,85; 50,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>31,7; 37,28</t>
+          <t>29,68; 39,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 29,58</t>
+          <t>19,36; 30,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 25,72</t>
+          <t>16,01; 25,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,71</t>
+          <t>15,98; 25,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,13; 35,41</t>
+          <t>23,49; 35,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,39; 41,67</t>
+          <t>29,53; 41,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,04; 43,08</t>
+          <t>30,53; 43,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 43,65</t>
+          <t>32,32; 44,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,25; 55,36</t>
+          <t>45,07; 55,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,65; 33,98</t>
+          <t>25,83; 33,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 33,16</t>
+          <t>24,98; 32,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,3; 32,75</t>
+          <t>25,26; 33,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,72; 43,15</t>
+          <t>35,8; 43,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,59</t>
+          <t>18,04; 26,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 18,25</t>
+          <t>11,13; 18,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 15,88</t>
+          <t>10,31; 16,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 27,74</t>
+          <t>19,38; 27,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,84; 46,13</t>
+          <t>37,44; 46,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,36</t>
+          <t>25,27; 33,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,1; 25,93</t>
+          <t>18,08; 25,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,06; 38,64</t>
+          <t>30,89; 38,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,83</t>
+          <t>28,94; 34,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 24,6</t>
+          <t>18,96; 24,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 19,88</t>
+          <t>15,1; 19,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,07; 32,08</t>
+          <t>26,3; 31,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 16,69</t>
+          <t>9,83; 17,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 20,42</t>
+          <t>11,81; 20,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 17,55</t>
+          <t>9,98; 17,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,03; 38,3</t>
+          <t>27,95; 37,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,55; 32,19</t>
+          <t>21,99; 31,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,48; 31,33</t>
+          <t>21,8; 31,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 27,83</t>
+          <t>17,76; 27,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,11; 41,08</t>
+          <t>32,36; 41,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 23,26</t>
+          <t>17,24; 23,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,88</t>
+          <t>18,06; 24,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 21,45</t>
+          <t>15,05; 21,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,48; 38,0</t>
+          <t>31,65; 38,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,34</t>
+          <t>16,81; 25,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 21,27</t>
+          <t>12,88; 20,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 27,22</t>
+          <t>18,24; 26,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 37,82</t>
+          <t>25,23; 37,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 39,81</t>
+          <t>29,96; 39,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,12; 39,76</t>
+          <t>29,9; 39,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 42,35</t>
+          <t>32,38; 42,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,19; 43,37</t>
+          <t>20,43; 43,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,29</t>
+          <t>24,89; 31,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 29,34</t>
+          <t>22,79; 29,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 33,46</t>
+          <t>26,75; 33,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,64; 38,78</t>
+          <t>23,42; 38,95</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,29</t>
+          <t>10,97; 20,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,65</t>
+          <t>16,19; 27,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,65; 27,73</t>
+          <t>16,7; 28,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 28,59</t>
+          <t>19,43; 29,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,73; 29,22</t>
+          <t>17,16; 29,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 53,38</t>
+          <t>39,29; 52,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,23; 35,44</t>
+          <t>23,66; 35,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,53; 37,65</t>
+          <t>29,09; 37,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,55</t>
+          <t>15,62; 23,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,56; 38,7</t>
+          <t>29,8; 38,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,49; 29,9</t>
+          <t>21,42; 29,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 32,07</t>
+          <t>25,74; 32,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,36</t>
+          <t>14,52; 24,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,83; 30,35</t>
+          <t>19,9; 29,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 27,22</t>
+          <t>17,66; 28,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,17; 48,92</t>
+          <t>38,6; 49,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,37; 35,17</t>
+          <t>23,9; 35,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 34,62</t>
+          <t>23,78; 34,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,29; 36,25</t>
+          <t>25,13; 36,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,06; 59,44</t>
+          <t>49,31; 59,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,23</t>
+          <t>21,01; 28,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 30,81</t>
+          <t>23,31; 31,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,41; 30,42</t>
+          <t>22,98; 30,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,01; 52,59</t>
+          <t>45,27; 52,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,92</t>
+          <t>11,18; 16,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,38</t>
+          <t>12,27; 18,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,77; 26,57</t>
+          <t>19,91; 26,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,55; 30,41</t>
+          <t>22,31; 30,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,77</t>
+          <t>17,55; 23,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,06; 30,49</t>
+          <t>23,51; 30,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 35,39</t>
+          <t>28,02; 35,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,03; 76,25</t>
+          <t>34,37; 75,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,18; 19,33</t>
+          <t>15,19; 19,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,43</t>
+          <t>18,78; 23,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,92; 30,06</t>
+          <t>24,77; 29,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,97; 62,07</t>
+          <t>29,98; 63,29</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,71</t>
+          <t>16,01; 21,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,05; 27,24</t>
+          <t>20,75; 27,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,66</t>
+          <t>13,39; 18,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,07; 19,16</t>
+          <t>5,83; 19,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,8; 29,36</t>
+          <t>22,93; 28,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,38; 35,21</t>
+          <t>28,55; 35,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,73; 29,05</t>
+          <t>22,45; 29,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,0; 32,78</t>
+          <t>26,74; 32,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,34; 24,53</t>
+          <t>20,26; 24,45</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>25,73; 30,4</t>
+          <t>25,8; 30,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19,07; 23,45</t>
+          <t>18,77; 23,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,17; 24,76</t>
+          <t>12,59; 24,75</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,88; 19,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,32</t>
+          <t>17,5; 20,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,39; 20,0</t>
+          <t>17,35; 19,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,67; 27,49</t>
+          <t>19,57; 27,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,56; 30,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,79</t>
+          <t>29,71; 33,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,19; 30,24</t>
+          <t>27,35; 30,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,85; 50,76</t>
+          <t>35,8; 50,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,75; 24,87</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,34</t>
+          <t>24,18; 26,34</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,83</t>
+          <t>22,75; 24,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>29,68; 39,22</t>
+          <t>29,64; 40,15</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>66126</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>60083</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59696</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>91127</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>91706</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>105076</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>108205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>145839</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>157832</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>165159</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>167901</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>236965</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52868; 82804</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46690; 75649</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46268; 74845</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73158; 110083</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>77023; 108193</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>87404; 123645</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>92706; 126840</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>130539; 159740</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>137885; 180899</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>144352; 188175</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>145580; 190601</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>215188; 262672</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107389</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71639</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65675</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>210376</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>152155</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112694</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>178783</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>317764</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>223794</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>178369</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>299211</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88933; 128439</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>56137; 92717</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51823; 81978</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>100481; 143628</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>188689; 233349</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>132362; 174629</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>94005; 133215</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>159068; 197853</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>288505; 347420</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>195006; 250380</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>154428; 202433</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>271816; 329277</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41305</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51539</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41840</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>103064</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90117</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>89820</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>75025</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>127741</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>131422</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>141359</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>116865</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>230806</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31337; 54250</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38264; 67099</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31537; 54430</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88350; 119205</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>73752; 106140</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>74326; 106884</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>58815; 90978</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>112991; 143627</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>112782; 154814</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>120085; 163463</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>97410; 137924</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>210509; 254632</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>74943</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61410</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>82175</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>96855</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>129381</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>134606</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>143041</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>164605</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>204324</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>196015</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>225216</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>261460</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60277; 93138</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47356; 76239</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67106; 99040</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>78488; 118124</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>111271; 147828</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>115705; 153270</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>124402; 164514</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>97103; 207840</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>181763; 233023</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>171997; 220699</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>201175; 250923</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>184167; 306324</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30885</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>45941</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>45275</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42182</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47717</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>101665</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>63888</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69445</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>78602</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>147607</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>109163</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>111627</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22309; 40901</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34430; 59393</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34484; 58789</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34730; 51959</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35638; 61435</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>86268; 116041</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51720; 78153</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>60570; 78833</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>64180; 96541</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>128800; 167627</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>91048; 127288</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>99603; 124764</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51840</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>67302</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>57547</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>117786</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>82163</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>81493</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83592</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>140088</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>134002</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>148795</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>141139</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>257874</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39317; 65207</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>54353; 81449</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>46477; 74235</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>104077; 132572</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>66464; 98477</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>66581; 97325</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>68100; 99591</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>126765; 153581</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>115349; 154794</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>128924; 172995</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>122737; 163212</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>238424; 277924</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>86053</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>99770</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>150027</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>163401</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>131406</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>186302</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>215593</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>430865</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>217460</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>286071</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>365620</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>594266</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>68768; 103415</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>81221; 120259</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>129339; 172894</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>139097; 187974</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112023; 152699</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>162878; 211901</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>192827; 243133</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>291251; 641102</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>190318; 247073</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>254392; 318402</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>331393; 398715</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>441083; 930988</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>137143</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>185743</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>123091</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>124961</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>203839</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>262549</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>212735</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>213366</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>340982</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>448292</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>335826</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>338328</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>119084; 160119</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>160598; 211419</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>103697; 144259</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>54094; 178518</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>179698; 227126</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>235205; 291914</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>184597; 242326</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>191577; 234729</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>309406; 373418</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>412314; 492350</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>299730; 369190</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>207052; 407041</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3348</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>595684</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>643427</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>625326</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>859805</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>986706</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1113667</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1014774</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1470732</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1582390</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1757093</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1640099</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2330537</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>552983; 642865</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>596618; 691523</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>584514; 670850</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>676549; 949686</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>931344; 1036340</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1056150; 1177238</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>963266; 1073617</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1309506; 1857299</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1514374; 1655188</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1684174; 1834398</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1567702; 1716472</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2109118; 2856413</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>